--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473278F6-34FA-41EC-919F-7B8C6E267165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2041C9-9F8A-4CD2-8B7D-BA022ED789E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12570" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="148">
   <si>
     <t>Putzlicht/Notfall</t>
   </si>
@@ -105,9 +105,6 @@
     <t>#Wartungs Pin</t>
   </si>
   <si>
-    <t>#Sitzungsdauer (für Timer)(m)</t>
-  </si>
-  <si>
     <t>#WiFi SSID</t>
   </si>
   <si>
@@ -420,9 +417,6 @@
     <t>#default</t>
   </si>
   <si>
-    <t>#Content Volume</t>
-  </si>
-  <si>
     <t>#Json value</t>
   </si>
   <si>
@@ -432,9 +426,6 @@
     <t>#min: (255/[Status ids])*[status id], max (255/[Status ids])*[status id+1]-1</t>
   </si>
   <si>
-    <t>C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Passwordwords.txt</t>
-  </si>
-  <si>
     <t>C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\QRLogo.png</t>
   </si>
   <si>
@@ -448,6 +439,36 @@
   </si>
   <si>
     <t>C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_werbe_Bild.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen_Backup\Passwordwords.txt</t>
+  </si>
+  <si>
+    <t>Kust Beleuchtung</t>
+  </si>
+  <si>
+    <t>#Not useable</t>
+  </si>
+  <si>
+    <t>Laustärke</t>
+  </si>
+  <si>
+    <t>Duschen</t>
+  </si>
+  <si>
+    <t>Toiletten</t>
+  </si>
+  <si>
+    <t>2, 10</t>
+  </si>
+  <si>
+    <t>3, 11</t>
+  </si>
+  <si>
+    <t>#List of Channels (R|G|B)</t>
+  </si>
+  <si>
+    <t>#Sitzungsdauer (für Timer)(m) (deprecated)</t>
   </si>
 </sst>
 </file>
@@ -616,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -646,11 +667,10 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -932,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +976,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>19</v>
@@ -968,11 +988,11 @@
         <v>21</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -991,7 +1011,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -1032,13 +1052,12 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6">
         <v>60</v>
       </c>
-      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1071,7 +1090,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1082,13 +1101,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1096,7 +1115,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1107,10 +1126,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1118,7 +1137,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12">
         <v>192</v>
@@ -1138,7 +1157,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13">
         <v>23</v>
@@ -1146,10 +1165,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1157,10 +1176,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1171,12 +1190,12 @@
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="27"/>
+        <v>55</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="28"/>
       <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1184,12 +1203,12 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="27"/>
+        <v>54</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="28"/>
       <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1197,10 +1216,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+        <v>57</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1208,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+        <v>58</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1219,12 +1238,12 @@
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="27"/>
+        <v>68</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="28"/>
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1232,29 +1251,32 @@
         <v>16</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="27"/>
+        <v>56</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="28"/>
       <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1262,16 +1284,19 @@
         <v>15</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1279,16 +1304,19 @@
         <v>15</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1296,15 +1324,18 @@
         <v>15</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <v>7</v>
       </c>
-      <c r="D25">
-        <v>0</v>
+      <c r="D25" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>255</v>
       </c>
     </row>
@@ -1313,84 +1344,87 @@
         <v>15</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>10</v>
       </c>
-      <c r="D26">
-        <v>0</v>
+      <c r="D26" t="s">
+        <v>139</v>
       </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="20">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>63</v>
-      </c>
-      <c r="E29" t="s">
-        <v>81</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="20">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
         <v>80</v>
-      </c>
-      <c r="C30">
-        <v>64</v>
-      </c>
-      <c r="D30">
-        <v>127</v>
-      </c>
-      <c r="E30" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1401,10 +1435,10 @@
         <v>79</v>
       </c>
       <c r="C31">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D31">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
         <v>83</v>
@@ -1418,10 +1452,10 @@
         <v>78</v>
       </c>
       <c r="C32">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="D32">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="E32" t="s">
         <v>82</v>
@@ -1429,51 +1463,42 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>116</v>
+        <v>77</v>
+      </c>
+      <c r="C33">
+        <v>192</v>
+      </c>
+      <c r="D33">
+        <v>255</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="17">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>128</v>
+        <v>44</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1481,130 +1506,136 @@
         <v>15</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35">
-        <v>10</v>
+        <v>84</v>
+      </c>
+      <c r="F35" s="17">
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="10">
-        <v>5</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>128</v>
+      <c r="B36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>90</v>
+      <c r="E37" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="10">
+        <v>5</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="11">
-        <v>2</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>5</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="11">
+        <v>2</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>5</v>
       </c>
-      <c r="D40">
-        <v>10</v>
-      </c>
       <c r="E40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1612,19 +1643,19 @@
         <v>16</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
         <v>10</v>
       </c>
-      <c r="D41">
-        <v>15</v>
-      </c>
       <c r="E41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1632,19 +1663,19 @@
         <v>16</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
         <v>107</v>
-      </c>
-      <c r="C42">
-        <v>15</v>
-      </c>
-      <c r="D42">
-        <v>20</v>
-      </c>
-      <c r="E42">
-        <v>15</v>
-      </c>
-      <c r="F42" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1652,90 +1683,90 @@
         <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C43">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="E43">
-        <v>250</v>
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>127</v>
+        <v>16</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44">
+        <v>250</v>
+      </c>
+      <c r="D44">
+        <v>255</v>
+      </c>
+      <c r="E44">
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" s="22">
+        <v>44</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="22">
         <v>6</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E46" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="G46" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
         <v>30</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1743,19 +1774,19 @@
         <v>16</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -1763,174 +1794,138 @@
         <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>111</v>
+        <v>16</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F51" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="G52" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="H52" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="J52" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="L51" s="5" t="s">
+      <c r="K52" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="N52" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N51" s="5" t="s">
+      <c r="O52" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="R52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S52" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="O51" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="P51" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q51" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="R51" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S51" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>255</v>
-      </c>
-      <c r="F52">
-        <v>56</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>128</v>
-      </c>
-      <c r="J52">
-        <v>128</v>
-      </c>
-      <c r="K52">
-        <v>255</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>255</v>
       </c>
       <c r="F53">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>128</v>
       </c>
-      <c r="H53">
-        <v>255</v>
-      </c>
-      <c r="I53">
-        <v>255</v>
-      </c>
       <c r="J53">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="K53">
         <v>255</v>
@@ -1953,140 +1948,140 @@
       <c r="Q53">
         <v>0</v>
       </c>
-      <c r="S53" t="s">
-        <v>50</v>
+      <c r="R53" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>255</v>
+      </c>
+      <c r="F54">
+        <v>200</v>
+      </c>
+      <c r="G54">
+        <v>128</v>
+      </c>
+      <c r="H54">
+        <v>255</v>
+      </c>
+      <c r="I54">
+        <v>255</v>
+      </c>
+      <c r="J54">
+        <v>255</v>
+      </c>
+      <c r="K54">
+        <v>255</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="S54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="S55" t="s">
         <v>60</v>
-      </c>
-      <c r="B54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="S54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <v>255</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F56">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2120,38 +2115,41 @@
       </c>
       <c r="Q56">
         <v>0</v>
+      </c>
+      <c r="R56" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="G57">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -2173,22 +2171,75 @@
       </c>
       <c r="Q57">
         <v>0</v>
-      </c>
-      <c r="R57" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>114</v>
+        <v>44</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>255</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>128</v>
+      </c>
+      <c r="J58">
+        <v>128</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>73</v>
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2041C9-9F8A-4CD2-8B7D-BA022ED789E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69235C38-8F68-437D-A9C2-7018450D287C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12570" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="153">
   <si>
     <t>Putzlicht/Notfall</t>
   </si>
@@ -469,6 +469,21 @@
   </si>
   <si>
     <t>#Sitzungsdauer (für Timer)(m) (deprecated)</t>
+  </si>
+  <si>
+    <t>COM3</t>
+  </si>
+  <si>
+    <t>COM4</t>
+  </si>
+  <si>
+    <t>#Enttec Port Name</t>
+  </si>
+  <si>
+    <t>#Arduino Com Port Name</t>
+  </si>
+  <si>
+    <t>#CH0</t>
   </si>
 </sst>
 </file>
@@ -637,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -668,9 +683,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -952,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,63 +1073,60 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10">
         <v>5</v>
       </c>
     </row>
@@ -1126,30 +1135,24 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12">
-        <v>192</v>
-      </c>
-      <c r="D12">
-        <v>168</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1157,69 +1160,76 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C14">
+        <v>192</v>
+      </c>
+      <c r="D14">
+        <v>168</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+        <v>55</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1227,10 +1237,12 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="15"/>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1238,12 +1250,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="28"/>
+        <v>57</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1251,72 +1261,56 @@
         <v>16</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="28"/>
+        <v>58</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" t="s">
         <v>44</v>
       </c>
-      <c r="F24" t="s">
-        <v>44</v>
+      <c r="B24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1324,19 +1318,19 @@
         <v>15</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C25">
-        <v>7</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>255</v>
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1344,19 +1338,19 @@
         <v>15</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>255</v>
+        <v>143</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1364,101 +1358,107 @@
         <v>15</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="C27">
-        <v>9</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" t="s">
-        <v>145</v>
+        <v>7</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="20">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>63</v>
-      </c>
-      <c r="E30" t="s">
-        <v>80</v>
+        <v>44</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31">
-        <v>64</v>
-      </c>
-      <c r="D31">
-        <v>127</v>
-      </c>
-      <c r="E31" t="s">
-        <v>83</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="20">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1466,216 +1466,210 @@
         <v>15</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C33">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="D33">
-        <v>255</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>115</v>
+        <v>78</v>
+      </c>
+      <c r="C34">
+        <v>128</v>
+      </c>
+      <c r="D34">
+        <v>191</v>
+      </c>
+      <c r="E34" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>117</v>
+      <c r="B35" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35">
+        <v>192</v>
+      </c>
+      <c r="D35">
+        <v>255</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="17">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
-      <c r="G36">
-        <v>4</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>127</v>
+        <v>44</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="10">
-        <v>5</v>
-      </c>
-      <c r="H37" s="26" t="s">
+      <c r="B37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="17">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>89</v>
+        <v>15</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="11">
-        <v>2</v>
-      </c>
-      <c r="E39" s="12" t="s">
+      <c r="G39" s="10">
+        <v>5</v>
+      </c>
+      <c r="H39" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>5</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" t="s">
-        <v>75</v>
+        <v>44</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41">
-        <v>5</v>
-      </c>
-      <c r="D41">
-        <v>10</v>
-      </c>
-      <c r="E41">
-        <v>5</v>
-      </c>
-      <c r="F41" t="s">
-        <v>73</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="11">
+        <v>2</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1683,19 +1677,19 @@
         <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1703,118 +1697,118 @@
         <v>16</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C44">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="D44">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c r="E44">
-        <v>250</v>
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>126</v>
+        <v>16</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>15</v>
+      </c>
+      <c r="F45" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46">
+        <v>250</v>
+      </c>
+      <c r="D46">
+        <v>255</v>
+      </c>
+      <c r="E46">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" s="22">
-        <v>6</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>30</v>
+      <c r="B47" s="14" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="22">
+        <v>6</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>109</v>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>86</v>
@@ -1823,386 +1817,329 @@
         <v>109</v>
       </c>
       <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" t="s">
         <v>10</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B53" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B54" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E54" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="H54" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="I54" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="J54" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="K54" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="L54" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="L52" s="5" t="s">
+      <c r="M54" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M52" s="5" t="s">
+      <c r="N54" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N52" s="5" t="s">
+      <c r="O54" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O52" s="5" t="s">
+      <c r="P54" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="P52" s="5" t="s">
+      <c r="Q54" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="Q52" s="5" t="s">
+      <c r="R54" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="R52" s="7" t="s">
+      <c r="S54" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="S52" s="5" t="s">
+      <c r="T54" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>255</v>
-      </c>
-      <c r="F53">
-        <v>56</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>128</v>
-      </c>
-      <c r="J53">
-        <v>128</v>
-      </c>
-      <c r="K53">
-        <v>255</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54">
-        <v>255</v>
-      </c>
-      <c r="F54">
-        <v>200</v>
-      </c>
-      <c r="G54">
-        <v>128</v>
-      </c>
-      <c r="H54">
-        <v>255</v>
-      </c>
-      <c r="I54">
-        <v>255</v>
-      </c>
-      <c r="J54">
-        <v>255</v>
-      </c>
-      <c r="K54">
-        <v>255</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="S54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>255</v>
+      </c>
+      <c r="G55">
+        <v>56</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>128</v>
+      </c>
+      <c r="K55">
+        <v>128</v>
+      </c>
+      <c r="L55">
+        <v>255</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>255</v>
+      </c>
+      <c r="G56">
+        <v>200</v>
+      </c>
+      <c r="H56">
+        <v>128</v>
+      </c>
+      <c r="I56">
+        <v>255</v>
+      </c>
+      <c r="J56">
+        <v>255</v>
+      </c>
+      <c r="K56">
+        <v>255</v>
+      </c>
+      <c r="L56">
+        <v>255</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="T56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
         <v>33</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C57" t="s">
         <v>121</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D57" t="s">
         <v>122</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="S55" t="s">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="T57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56">
-        <v>255</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>255</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="G58">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -2225,35 +2162,145 @@
       <c r="Q58">
         <v>0</v>
       </c>
-      <c r="R58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>255</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>255</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>128</v>
+      </c>
+      <c r="K60">
+        <v>128</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{214A0CD7-3BE3-4F42-8E5E-A2671652CB05}"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{214A0CD7-3BE3-4F42-8E5E-A2671652CB05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69235C38-8F68-437D-A9C2-7018450D287C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3576BB47-90AB-48C6-9D7F-91EA7C73936F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="142">
   <si>
     <t>Putzlicht/Notfall</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Putzlicht</t>
   </si>
   <si>
-    <t>Was kann ich für Sie tun?</t>
-  </si>
-  <si>
     <t>ServiceText</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>#Version:</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>#IP Zentrale</t>
   </si>
   <si>
@@ -237,9 +231,6 @@
     <t>#HDMI Switch</t>
   </si>
   <si>
-    <t>#ArtnetControl</t>
-  </si>
-  <si>
     <t>#Zeige Color Wheel Seite</t>
   </si>
   <si>
@@ -282,24 +273,9 @@
     <t>scene</t>
   </si>
   <si>
-    <t>#255 / [Anzahl DMXSzenen] * [gewünschter Index]</t>
-  </si>
-  <si>
-    <t>#255 / [Anzahl Service] * [gewünschter Index]</t>
-  </si>
-  <si>
-    <t>#ArtnetValue min</t>
-  </si>
-  <si>
-    <t>#ArtnetValue max</t>
-  </si>
-  <si>
     <t xml:space="preserve">#Anzeige Text </t>
   </si>
   <si>
-    <t>#Channel to change</t>
-  </si>
-  <si>
     <t>#Off Value</t>
   </si>
   <si>
@@ -354,9 +330,6 @@
     <t>#10 Minuten verbleibend</t>
   </si>
   <si>
-    <t>#255 / [Anzahl Service] * [gewünschter Index+1]-1</t>
-  </si>
-  <si>
     <t>#[More Serives can be added]</t>
   </si>
   <si>
@@ -372,21 +345,9 @@
     <t>#States</t>
   </si>
   <si>
-    <t>#Artnet Channel:</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
-    <t>#255 / [Anzahl DMXSzenen] * [gewünschter Index+1]-1</t>
-  </si>
-  <si>
-    <t>#255 / 100 * [gewünschter Lautstärke]</t>
-  </si>
-  <si>
-    <t>#255 / 100 * [gewünschter Lautstärke+1]-1</t>
-  </si>
-  <si>
     <t>Services</t>
   </si>
   <si>
@@ -408,12 +369,6 @@
     <t>#[More Session Informations can be added]</t>
   </si>
   <si>
-    <t>#+[Room]*(255/[Max Rooms])</t>
-  </si>
-  <si>
-    <t>#Artnet Channel (#+[Room]*(255/[Max Rooms])):</t>
-  </si>
-  <si>
     <t>#default</t>
   </si>
   <si>
@@ -484,6 +439,18 @@
   </si>
   <si>
     <t>#CH0</t>
+  </si>
+  <si>
+    <t>Was kann ich heute für Sie tun?</t>
+  </si>
+  <si>
+    <t>#Ambiente Fade Time (ms)</t>
+  </si>
+  <si>
+    <t>#DMX Channel to change</t>
+  </si>
+  <si>
+    <t>1.1</t>
   </si>
 </sst>
 </file>
@@ -652,7 +619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -665,7 +632,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -673,16 +639,16 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -964,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,31 +954,31 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>21</v>
+      <c r="D1" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1020,10 +986,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -1031,10 +997,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>192</v>
@@ -1051,10 +1017,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>50000</v>
@@ -1062,10 +1028,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>60</v>
@@ -1073,117 +1039,108 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
         <v>5</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>46</v>
+        <v>132</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14">
-        <v>192</v>
-      </c>
-      <c r="D14">
-        <v>168</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1191,29 +1148,38 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>192</v>
+      </c>
+      <c r="D15">
+        <v>168</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1221,170 +1187,161 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+        <v>53</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>62</v>
+        <v>14</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>69</v>
+        <v>14</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="C27">
-        <v>7</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>255</v>
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>63</v>
+        <v>14</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="C28">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>139</v>
+        <v>7</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1395,556 +1352,478 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>146</v>
+        <v>14</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="C29">
-        <v>9</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" t="s">
-        <v>145</v>
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="20">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="17"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>63</v>
-      </c>
-      <c r="E32" t="s">
-        <v>80</v>
+        <v>14</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33">
-        <v>64</v>
-      </c>
-      <c r="D33">
-        <v>127</v>
-      </c>
-      <c r="E33" t="s">
-        <v>83</v>
+        <v>14</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34">
-        <v>128</v>
-      </c>
-      <c r="D34">
-        <v>191</v>
-      </c>
-      <c r="E34" t="s">
-        <v>82</v>
+        <v>14</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35">
-        <v>192</v>
-      </c>
-      <c r="D35">
-        <v>255</v>
-      </c>
-      <c r="E35" t="s">
-        <v>81</v>
+        <v>14</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>115</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" s="17">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>3</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>127</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="16">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38">
-        <v>10</v>
-      </c>
-      <c r="G38">
-        <v>4</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>127</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38">
+        <v>15</v>
+      </c>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>114</v>
+        <v>14</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" s="10">
-        <v>5</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>127</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>89</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="11">
-        <v>2</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
         <v>5</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
-        <v>75</v>
+      <c r="D42" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="D43">
         <v>10</v>
       </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-      <c r="F43" t="s">
-        <v>73</v>
+      <c r="D43" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C44">
-        <v>10</v>
-      </c>
-      <c r="D44">
-        <v>15</v>
-      </c>
-      <c r="E44">
-        <v>10</v>
-      </c>
-      <c r="F44" t="s">
-        <v>107</v>
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C45">
-        <v>15</v>
-      </c>
-      <c r="D45">
-        <v>20</v>
-      </c>
-      <c r="E45">
-        <v>15</v>
-      </c>
-      <c r="F45" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46">
-        <v>250</v>
-      </c>
-      <c r="D46">
-        <v>255</v>
-      </c>
-      <c r="E46">
-        <v>250</v>
+        <v>42</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>126</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="22">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
         <v>6</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" t="s">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" t="s">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>110</v>
+        <v>42</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T53" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N54" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O54" s="5" t="s">
+      <c r="A54" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
         <v>37</v>
       </c>
-      <c r="P54" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q54" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="S54" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="T54" s="5" t="s">
-        <v>38</v>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>255</v>
+      </c>
+      <c r="G54">
+        <v>56</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>128</v>
+      </c>
+      <c r="K54">
+        <v>128</v>
+      </c>
+      <c r="L54">
+        <v>255</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1953,19 +1832,19 @@
         <v>255</v>
       </c>
       <c r="G55">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="J55">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="K55">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="L55">
         <v>255</v>
@@ -1988,150 +1867,150 @@
       <c r="R55">
         <v>0</v>
       </c>
-      <c r="S55" t="s">
-        <v>136</v>
+      <c r="T55" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="T56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" t="s">
         <v>32</v>
       </c>
-      <c r="C56" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
         <v>255</v>
       </c>
-      <c r="G56">
-        <v>200</v>
-      </c>
-      <c r="H56">
-        <v>128</v>
-      </c>
-      <c r="I56">
-        <v>255</v>
-      </c>
-      <c r="J56">
-        <v>255</v>
-      </c>
-      <c r="K56">
-        <v>255</v>
-      </c>
-      <c r="L56">
-        <v>255</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="T56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57" t="s">
         <v>122</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="T57" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
         <v>255</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
       <c r="H58">
         <v>0</v>
       </c>
@@ -2164,23 +2043,20 @@
       </c>
       <c r="R58">
         <v>0</v>
-      </c>
-      <c r="S58" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2189,19 +2065,19 @@
         <v>0</v>
       </c>
       <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
         <v>255</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -2223,84 +2099,28 @@
       </c>
       <c r="R59">
         <v>0</v>
+      </c>
+      <c r="S59" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>255</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>128</v>
-      </c>
-      <c r="K60">
-        <v>128</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60" t="s">
-        <v>136</v>
+        <v>42</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>72</v>
+      <c r="A61" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{214A0CD7-3BE3-4F42-8E5E-A2671652CB05}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{214A0CD7-3BE3-4F42-8E5E-A2671652CB05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
